--- a/asiganciones.xlsx
+++ b/asiganciones.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mi unidad\Sena\Danilo\git-flow en grupo\git-flow\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yoine\OneDrive\Escritorio\git-flow danna\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{047D8BF5-353D-4821-8852-2C4C1720D2D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7368FB92-F9F2-49F6-8A9A-2944F1C9C45B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="32">
   <si>
     <t>#</t>
   </si>
@@ -120,13 +120,7 @@
     <t>Danna</t>
   </si>
   <si>
-    <t>Sofia</t>
-  </si>
-  <si>
     <t>danna</t>
-  </si>
-  <si>
-    <t>sofia</t>
   </si>
 </sst>
 </file>
@@ -164,7 +158,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -201,6 +195,12 @@
         <bgColor rgb="FFFCE4D6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD0E0E3"/>
+        <bgColor rgb="FFFFF2CC"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="5">
     <border>
@@ -266,7 +266,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -305,8 +305,11 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="164" fontId="2" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -596,7 +599,7 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -674,7 +677,7 @@
         <v>9</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E5" s="9" t="s">
         <v>7</v>
@@ -697,7 +700,7 @@
         <v>11</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E6" s="9" t="s">
         <v>7</v>
@@ -720,7 +723,7 @@
         <v>13</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E7" s="9" t="s">
         <v>7</v>
@@ -743,7 +746,7 @@
         <v>25</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E8" s="9" t="s">
         <v>7</v>
@@ -766,7 +769,7 @@
         <v>20</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E9" s="9" t="s">
         <v>7</v>
@@ -788,17 +791,17 @@
       <c r="C10" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="11" t="s">
-        <v>33</v>
+      <c r="D10" s="13" t="s">
+        <v>31</v>
       </c>
       <c r="E10" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="F10" s="6">
-        <v>44976</v>
-      </c>
-      <c r="G10" s="14" t="s">
-        <v>31</v>
+      <c r="F10" s="14">
+        <v>44976</v>
+      </c>
+      <c r="G10" s="15" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -811,17 +814,17 @@
       <c r="C11" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="11" t="s">
-        <v>33</v>
+      <c r="D11" s="13" t="s">
+        <v>31</v>
       </c>
       <c r="E11" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="F11" s="6">
-        <v>44976</v>
-      </c>
-      <c r="G11" s="14" t="s">
-        <v>31</v>
+      <c r="F11" s="14">
+        <v>44976</v>
+      </c>
+      <c r="G11" s="15" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -834,17 +837,17 @@
       <c r="C12" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="11" t="s">
-        <v>33</v>
+      <c r="D12" s="13" t="s">
+        <v>31</v>
       </c>
       <c r="E12" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="F12" s="6">
-        <v>44976</v>
-      </c>
-      <c r="G12" s="14" t="s">
-        <v>31</v>
+      <c r="F12" s="14">
+        <v>44976</v>
+      </c>
+      <c r="G12" s="15" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -857,17 +860,17 @@
       <c r="C13" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="11" t="s">
-        <v>33</v>
+      <c r="D13" s="13" t="s">
+        <v>31</v>
       </c>
       <c r="E13" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="F13" s="6">
-        <v>44976</v>
-      </c>
-      <c r="G13" s="14" t="s">
-        <v>31</v>
+      <c r="F13" s="14">
+        <v>44976</v>
+      </c>
+      <c r="G13" s="15" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -880,17 +883,17 @@
       <c r="C14" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="D14" s="11" t="s">
-        <v>33</v>
+      <c r="D14" s="13" t="s">
+        <v>31</v>
       </c>
       <c r="E14" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="F14" s="6">
-        <v>44976</v>
-      </c>
-      <c r="G14" s="14" t="s">
-        <v>31</v>
+      <c r="F14" s="14">
+        <v>44976</v>
+      </c>
+      <c r="G14" s="15" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
